--- a/data/PEW Middle Class Data.xlsx
+++ b/data/PEW Middle Class Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24500" windowHeight="15600"/>
+    <workbookView xWindow="60" yWindow="3400" windowWidth="24500" windowHeight="26680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1. Distribution, metro" sheetId="13" r:id="rId1"/>
@@ -2050,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -12536,10 +12536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K240"/>
+  <dimension ref="A1:K236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19259,32 +19259,6 @@
       <c r="I236" s="30">
         <v>174963.54533927201</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
